--- a/config_12.28/activity_052_qfhl_config.xlsx
+++ b/config_12.28/activity_052_qfhl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I17:I18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="F2">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
@@ -800,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_12.28/activity_052_qfhl_config.xlsx
+++ b/config_12.28/activity_052_qfhl_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="cfg" sheetId="5" r:id="rId1"/>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>condiy_key</t>
-  </si>
-  <si>
-    <t>"prop_fish_drop_act_0","prop_grade",</t>
-  </si>
-  <si>
-    <t>300,10</t>
   </si>
   <si>
     <t>id</t>
@@ -313,6 +307,14 @@
   </si>
   <si>
     <t>activity_icon_pg13pro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300，300</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +415,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,13 +725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -758,10 +763,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -772,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E2">
         <v>1640649600</v>
@@ -784,15 +789,16 @@
         <v>1641225599</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -814,22 +820,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
@@ -837,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2">
         <v>12130</v>
@@ -854,13 +860,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>12131</v>
@@ -871,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2">
         <v>12132</v>
@@ -888,13 +894,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>12133</v>
@@ -905,13 +911,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>12134</v>
@@ -922,13 +928,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>12135</v>
@@ -939,13 +945,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>12136</v>
@@ -956,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>12137</v>
@@ -973,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>12138</v>
@@ -990,13 +996,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>12139</v>
@@ -1007,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="2">
         <v>12140</v>
@@ -1024,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>12141</v>
@@ -1041,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>12142</v>
@@ -1058,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2">
         <v>12143</v>
@@ -1075,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
         <v>12144</v>
@@ -1111,16 +1117,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1134,7 +1140,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1148,7 +1154,7 @@
         <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1162,7 +1168,7 @@
         <v>109</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -1189,16 +1195,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1206,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1220,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
@@ -1234,13 +1240,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.28/activity_052_qfhl_config.xlsx
+++ b/config_12.28/activity_052_qfhl_config.xlsx
@@ -314,7 +314,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>300，300</t>
+    <t>300,300</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +726,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
